--- a/plan_budget_real.xlsx
+++ b/plan_budget_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTOS\Proyecto_Plan_Minero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F3BEE3-FF0A-4E6E-B92E-27A6AA74CE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9105A46-7415-42D7-B4E2-D3C97575D43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta" sheetId="1" r:id="rId1"/>
@@ -1631,20 +1631,19 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="13" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="13" customWidth="1"/>
+    <col min="4" max="16" width="11.109375" style="13" customWidth="1"/>
     <col min="17" max="28" width="16" style="13" customWidth="1"/>
     <col min="29" max="29" width="13.44140625" style="13" customWidth="1"/>
     <col min="30" max="33" width="16" style="13" customWidth="1"/>
@@ -1881,34 +1880,34 @@
         <v>28880.830171783477</v>
       </c>
       <c r="G3" s="1">
-        <v>86341.167551972758</v>
+        <v>82633.940989472758</v>
       </c>
       <c r="H3" s="1">
-        <v>37992.662594361216</v>
+        <v>37905.407246759511</v>
       </c>
       <c r="I3" s="1">
         <v>69602.821028055856</v>
       </c>
       <c r="J3" s="1">
-        <v>37740.986521085651</v>
+        <v>43803.585770536767</v>
       </c>
       <c r="K3" s="1">
-        <v>45250.546443424835</v>
+        <v>57463.238904222257</v>
       </c>
       <c r="L3" s="1">
-        <v>50301.657205710537</v>
+        <v>17919.857164513</v>
       </c>
       <c r="M3" s="1">
-        <v>72859.636621505182</v>
+        <v>126232.72080141996</v>
       </c>
       <c r="N3" s="1">
-        <v>244817.1286902065</v>
+        <v>264828.51761792897</v>
       </c>
       <c r="O3" s="1">
-        <v>53654.080116195211</v>
+        <v>44126.572179907816</v>
       </c>
       <c r="P3" s="33">
-        <v>914027.10392516584</v>
+        <v>959983.07885546528</v>
       </c>
       <c r="Q3" s="1">
         <v>170835.49218904416</v>
@@ -1979,43 +1978,43 @@
         <v>179</v>
       </c>
       <c r="D4" s="2">
-        <v>0.49518961015527901</v>
+        <v>0.51050475273740148</v>
       </c>
       <c r="E4" s="2">
-        <v>0.39162262449882601</v>
+        <v>0.40373466443177936</v>
       </c>
       <c r="F4" s="2">
-        <v>0.38189410925386003</v>
+        <v>0.3937052672720211</v>
       </c>
       <c r="G4" s="2">
-        <v>0.598054081068777</v>
+        <v>0.62859320407878316</v>
       </c>
       <c r="H4" s="2">
-        <v>0.56956715375857203</v>
+        <v>0.5877497775049122</v>
       </c>
       <c r="I4" s="2">
-        <v>0.413362267403727</v>
+        <v>0.42614666742652274</v>
       </c>
       <c r="J4" s="2">
-        <v>0.398420260415977</v>
+        <v>0.48154750315044442</v>
       </c>
       <c r="K4" s="2">
-        <v>0.87988367241902299</v>
+        <v>0.8042709554553823</v>
       </c>
       <c r="L4" s="2">
-        <v>0.82261558281337399</v>
+        <v>0.76818055672738961</v>
       </c>
       <c r="M4" s="2">
-        <v>0.88465151472276204</v>
+        <v>0.92742713987976044</v>
       </c>
       <c r="N4" s="2">
-        <v>0.71610598120486002</v>
+        <v>0.77438661634944395</v>
       </c>
       <c r="O4" s="2">
-        <v>0.45774132078649898</v>
+        <v>1.5080662023797085</v>
       </c>
       <c r="P4" s="35">
-        <v>0.61301187628462805</v>
+        <v>0.70248973712700502</v>
       </c>
       <c r="Q4" s="2">
         <v>0.52148612022221597</v>
@@ -2095,34 +2094,34 @@
         <v>79.537186549297743</v>
       </c>
       <c r="G5" s="3">
-        <v>79.819474511218829</v>
+        <v>79.903961524202757</v>
       </c>
       <c r="H5" s="3">
-        <v>82.467845888188393</v>
+        <v>82.471966181775386</v>
       </c>
       <c r="I5" s="3">
         <v>80.583507699940867</v>
       </c>
       <c r="J5" s="3">
-        <v>80.71061058129105</v>
+        <v>80.425751603812571</v>
       </c>
       <c r="K5" s="3">
-        <v>82.476464298709146</v>
+        <v>82.366742858168351</v>
       </c>
       <c r="L5" s="3">
-        <v>80.478429125514239</v>
+        <v>79.084856807023854</v>
       </c>
       <c r="M5" s="3">
-        <v>79.596441633458269</v>
+        <v>79.869085730575833</v>
       </c>
       <c r="N5" s="3">
-        <v>82.228361008609568</v>
+        <v>82.040366614662076</v>
       </c>
       <c r="O5" s="3">
-        <v>83.582106719671927</v>
+        <v>82.258517563854952</v>
       </c>
       <c r="P5" s="37">
-        <v>80.744717283549249</v>
+        <v>80.73294876985608</v>
       </c>
       <c r="Q5" s="3">
         <v>81.991962538663174</v>
@@ -2309,34 +2308,34 @@
         <v>82.5371865492978</v>
       </c>
       <c r="G7" s="3">
-        <v>82.8194745112188</v>
+        <v>82.903961524202799</v>
       </c>
       <c r="H7" s="3">
-        <v>85.467845888188407</v>
+        <v>85.4719661817754</v>
       </c>
       <c r="I7" s="3">
         <v>83.583507699940895</v>
       </c>
       <c r="J7" s="3">
-        <v>83.710610581290993</v>
+        <v>83.4257516038126</v>
       </c>
       <c r="K7" s="3">
-        <v>85.476464298709104</v>
+        <v>85.366742858168394</v>
       </c>
       <c r="L7" s="3">
-        <v>83.478429125514197</v>
+        <v>82.084856807023897</v>
       </c>
       <c r="M7" s="3">
-        <v>82.596441633458298</v>
+        <v>82.869085730575804</v>
       </c>
       <c r="N7" s="3">
-        <v>85.228361008609596</v>
+        <v>85.040366614662105</v>
       </c>
       <c r="O7" s="3">
-        <v>86.582106719671899</v>
+        <v>85.258517563854994</v>
       </c>
       <c r="P7" s="37">
-        <v>83.744717283549207</v>
+        <v>83.732948769856094</v>
       </c>
       <c r="Q7" s="3">
         <v>84.991962538663202</v>
@@ -2416,34 +2415,34 @@
         <v>91.033720634976703</v>
       </c>
       <c r="G8" s="1">
-        <v>427.65233340807202</v>
+        <v>417.71028135718001</v>
       </c>
       <c r="H8" s="1">
-        <v>184.947057083385</v>
+        <v>184.70943043048501</v>
       </c>
       <c r="I8" s="1">
         <v>240.47961382002501</v>
       </c>
       <c r="J8" s="1">
-        <v>125.873750576533</v>
+        <v>170.694945404864</v>
       </c>
       <c r="K8" s="1">
-        <v>340.32639730447499</v>
+        <v>382.69512703003602</v>
       </c>
       <c r="L8" s="1">
-        <v>345.42478297640298</v>
+        <v>109.60557215399901</v>
       </c>
       <c r="M8" s="1">
-        <v>532.37856845917804</v>
+        <v>941.05720798882203</v>
       </c>
       <c r="N8" s="1">
-        <v>1494.18109758425</v>
+        <v>1691.68479603219</v>
       </c>
       <c r="O8" s="1">
-        <v>212.64296571154</v>
+        <v>550.33877196175195</v>
       </c>
       <c r="P8" s="33">
-        <v>4692.2958152439896</v>
+        <v>5477.3649944994804</v>
       </c>
       <c r="Q8" s="1">
         <v>757.17926874505997</v>
@@ -2523,34 +2522,34 @@
         <v>449666.96962821652</v>
       </c>
       <c r="G9" s="1">
-        <v>438053.56694802694</v>
+        <v>441760.79351052723</v>
       </c>
       <c r="H9" s="1">
-        <v>463576.76050563878</v>
+        <v>463664.01585324085</v>
       </c>
       <c r="I9" s="1">
-        <v>454014.61427194392</v>
+        <v>454014.61427194445</v>
       </c>
       <c r="J9" s="1">
-        <v>484262.11837891472</v>
+        <v>478199.51912946266</v>
       </c>
       <c r="K9" s="1">
-        <v>477552.65725657536</v>
+        <v>465339.96479577845</v>
       </c>
       <c r="L9" s="1">
-        <v>418339.38389428903</v>
+        <v>450721.18393548735</v>
       </c>
       <c r="M9" s="1">
-        <v>469509.58013213472</v>
+        <v>416136.53339857952</v>
       </c>
       <c r="N9" s="1">
-        <v>242613.56360979297</v>
+        <v>222602.174682071</v>
       </c>
       <c r="O9" s="1">
-        <v>489584.22738380474</v>
+        <v>499111.73532009177</v>
       </c>
       <c r="P9" s="33">
-        <v>5176006.7009268012</v>
+        <v>5130050.7634428656</v>
       </c>
       <c r="Q9" s="1">
         <v>334619.39061095577</v>
@@ -2621,43 +2620,43 @@
         <v>179</v>
       </c>
       <c r="D10" s="2">
-        <v>0.85065774226031099</v>
+        <v>0.87696674459825907</v>
       </c>
       <c r="E10" s="2">
-        <v>0.78225716489366504</v>
+        <v>0.80645068545738674</v>
       </c>
       <c r="F10" s="2">
-        <v>0.81493866463764197</v>
+        <v>0.84014295323468235</v>
       </c>
       <c r="G10" s="2">
-        <v>0.79946158153347402</v>
+        <v>0.73709817596117355</v>
       </c>
       <c r="H10" s="2">
-        <v>0.79627669582636995</v>
+        <v>0.74162922381348895</v>
       </c>
       <c r="I10" s="2">
-        <v>0.83159426592554497</v>
+        <v>0.77658230916157744</v>
       </c>
       <c r="J10" s="2">
-        <v>0.89953042009624595</v>
+        <v>0.76367452425290661</v>
       </c>
       <c r="K10" s="2">
-        <v>0.84576752083819795</v>
+        <v>0.72082853401845581</v>
       </c>
       <c r="L10" s="2">
-        <v>0.64837338286158797</v>
+        <v>0.89484332021904289</v>
       </c>
       <c r="M10" s="2">
-        <v>0.55753053047246603</v>
+        <v>0.66768585899005295</v>
       </c>
       <c r="N10" s="2">
-        <v>0.62206889818686595</v>
+        <v>0.78667821000904703</v>
       </c>
       <c r="O10" s="2">
-        <v>0.59561764688637997</v>
+        <v>0.64161962171303177</v>
       </c>
       <c r="P10" s="35">
-        <v>0.75742269812060703</v>
+        <v>0.76780773821210657</v>
       </c>
       <c r="Q10" s="2">
         <v>0.75941662238793906</v>
@@ -2737,34 +2736,34 @@
         <v>76.207257424627812</v>
       </c>
       <c r="G11" s="3">
-        <v>76.378633314388907</v>
+        <v>76.42691897532977</v>
       </c>
       <c r="H11" s="3">
-        <v>76.026871990138432</v>
+        <v>76.035185324690886</v>
       </c>
       <c r="I11" s="3">
-        <v>76.308601787872703</v>
+        <v>76.345701514121174</v>
       </c>
       <c r="J11" s="3">
-        <v>76.12772855652949</v>
+        <v>76.111746893868357</v>
       </c>
       <c r="K11" s="3">
-        <v>75.507538054979022</v>
+        <v>75.875814371350558</v>
       </c>
       <c r="L11" s="3">
-        <v>75.614222883024695</v>
+        <v>76.160799158238049</v>
       </c>
       <c r="M11" s="3">
-        <v>75.637114861070685</v>
+        <v>74.734468023753337</v>
       </c>
       <c r="N11" s="3">
-        <v>79.740178645371103</v>
+        <v>79.672449914083742</v>
       </c>
       <c r="O11" s="3">
-        <v>78.000281510052943</v>
+        <v>77.628227788449067</v>
       </c>
       <c r="P11" s="37">
-        <v>76.334605720441274</v>
+        <v>76.35681745192187</v>
       </c>
       <c r="Q11" s="3">
         <v>81.755906689427079</v>
@@ -2951,34 +2950,34 @@
         <v>79.207257424627798</v>
       </c>
       <c r="G13" s="3">
-        <v>79.378633314388907</v>
+        <v>79.426918975329798</v>
       </c>
       <c r="H13" s="3">
-        <v>79.026871990138403</v>
+        <v>79.0351853246909</v>
       </c>
       <c r="I13" s="3">
-        <v>79.308601787872703</v>
+        <v>79.345701514121203</v>
       </c>
       <c r="J13" s="3">
-        <v>79.127728556529505</v>
+        <v>79.1117468938684</v>
       </c>
       <c r="K13" s="3">
-        <v>78.507538054978994</v>
+        <v>78.8758143713506</v>
       </c>
       <c r="L13" s="3">
-        <v>78.614222883024695</v>
+        <v>79.160799158238007</v>
       </c>
       <c r="M13" s="3">
-        <v>78.6371148610707</v>
+        <v>77.734468023753394</v>
       </c>
       <c r="N13" s="3">
-        <v>82.740178645371103</v>
+        <v>82.672449914083799</v>
       </c>
       <c r="O13" s="3">
-        <v>81.000281510052901</v>
+        <v>80.628227788449095</v>
       </c>
       <c r="P13" s="37">
-        <v>79.334605720441303</v>
+        <v>79.356817451921899</v>
       </c>
       <c r="Q13" s="3">
         <v>84.755906689427107</v>
@@ -3058,34 +3057,34 @@
         <v>2902.5578671540102</v>
       </c>
       <c r="G14" s="1">
-        <v>2779.8952833021899</v>
+        <v>2508.7186386767298</v>
       </c>
       <c r="H14" s="1">
-        <v>2917.1613720320902</v>
+        <v>2636.2247764805402</v>
       </c>
       <c r="I14" s="1">
-        <v>2994.3434481274198</v>
+        <v>2713.6414477365502</v>
       </c>
       <c r="J14" s="1">
-        <v>3446.8711681567802</v>
+        <v>2802.4001449924299</v>
       </c>
       <c r="K14" s="1">
-        <v>3170.9078978613102</v>
+        <v>2566.36198205032</v>
       </c>
       <c r="L14" s="1">
-        <v>2132.3331367974101</v>
+        <v>3096.9691210863598</v>
       </c>
       <c r="M14" s="1">
-        <v>2058.4517132405299</v>
+        <v>2095.0451576942</v>
       </c>
       <c r="N14" s="1">
-        <v>1248.7342382602101</v>
+        <v>1404.29731567206</v>
       </c>
       <c r="O14" s="1">
-        <v>2362.0087532569801</v>
+        <v>2504.57629914978</v>
       </c>
       <c r="P14" s="33">
-        <v>31102.536853079211</v>
+        <v>30320.0647255152</v>
       </c>
       <c r="Q14" s="1">
         <v>2153.7791928927199</v>
@@ -3169,7 +3168,7 @@
         <v>524394.7344999999</v>
       </c>
       <c r="H15" s="33">
-        <v>501569.42310000013</v>
+        <v>501569.42310000007</v>
       </c>
       <c r="I15" s="33">
         <v>523617.43530000001</v>
@@ -3178,22 +3177,22 @@
         <v>522003.10490000003</v>
       </c>
       <c r="K15" s="33">
-        <v>522803.2036999999</v>
+        <v>522803.20369999995</v>
       </c>
       <c r="L15" s="33">
-        <v>468641.04109999968</v>
+        <v>468641.04109999991</v>
       </c>
       <c r="M15" s="33">
-        <v>542369.21675364021</v>
+        <v>542369.25419999985</v>
       </c>
       <c r="N15" s="33">
-        <v>487430.69229999988</v>
+        <v>487430.69230000005</v>
       </c>
       <c r="O15" s="33">
         <v>543238.30749999988</v>
       </c>
       <c r="P15" s="33">
-        <v>6090033.8048519641</v>
+        <v>6090033.8422983289</v>
       </c>
       <c r="Q15" s="33">
         <v>505454.88279999996</v>
@@ -3264,43 +3263,43 @@
         <v>179</v>
       </c>
       <c r="D16" s="35">
-        <v>0.75660000000072902</v>
+        <v>0.78000000000075154</v>
       </c>
       <c r="E16" s="35">
-        <v>0.73719999999999997</v>
+        <v>0.76</v>
       </c>
       <c r="F16" s="35">
-        <v>0.78880399999999995</v>
+        <v>0.81319999999999992</v>
       </c>
       <c r="G16" s="35">
-        <v>0.76629999999999998</v>
+        <v>0.72</v>
       </c>
       <c r="H16" s="35">
-        <v>0.77910400000000002</v>
+        <v>0.72999999999999987</v>
       </c>
       <c r="I16" s="35">
-        <v>0.77600000000000002</v>
+        <v>0.72999999999999987</v>
       </c>
       <c r="J16" s="35">
-        <v>0.86329999999999996</v>
+        <v>0.73999999999999988</v>
       </c>
       <c r="K16" s="35">
-        <v>0.848720399647382</v>
+        <v>0.73000000000000009</v>
       </c>
       <c r="L16" s="35">
-        <v>0.66707569581346005</v>
+        <v>0.89</v>
       </c>
       <c r="M16" s="35">
-        <v>0.601474610091151</v>
+        <v>0.72813885911358689</v>
       </c>
       <c r="N16" s="35">
-        <v>0.66930000000000001</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="O16" s="35">
-        <v>0.58199999999999996</v>
+        <v>0.71200000000000019</v>
       </c>
       <c r="P16" s="35">
-        <v>0.73574869605627902</v>
+        <v>0.75751154324667858</v>
       </c>
       <c r="Q16" s="35">
         <v>0.67900000000000005</v>
@@ -3487,34 +3486,34 @@
         <v>76.304553023195481</v>
       </c>
       <c r="G18" s="37">
-        <v>76.820779473964251</v>
+        <v>76.905270688632143</v>
       </c>
       <c r="H18" s="37">
-        <v>76.383544566797909</v>
+        <v>76.426844631633557</v>
       </c>
       <c r="I18" s="37">
-        <v>76.611298994530316</v>
+        <v>76.674545626035339</v>
       </c>
       <c r="J18" s="37">
-        <v>76.280646522868523</v>
+        <v>76.347319403112991</v>
       </c>
       <c r="K18" s="37">
-        <v>76.132872100487688</v>
+        <v>76.661842722308549</v>
       </c>
       <c r="L18" s="37">
-        <v>76.258059642908108</v>
+        <v>76.257304968004433</v>
       </c>
       <c r="M18" s="37">
-        <v>76.419405694583347</v>
+        <v>76.256593961857135</v>
       </c>
       <c r="N18" s="37">
-        <v>81.077290106771898</v>
+        <v>80.94971644971244</v>
       </c>
       <c r="O18" s="37">
-        <v>78.433877974863265</v>
+        <v>78.424860965377391</v>
       </c>
       <c r="P18" s="37">
-        <v>76.886083901350588</v>
+        <v>76.996530113436066</v>
       </c>
       <c r="Q18" s="37">
         <v>81.81718170817436</v>
@@ -3701,34 +3700,34 @@
         <v>79.304553023195496</v>
       </c>
       <c r="G20" s="37">
-        <v>79.820779473964194</v>
+        <v>79.9052706886321</v>
       </c>
       <c r="H20" s="37">
-        <v>79.383544566797895</v>
+        <v>79.4268446316336</v>
       </c>
       <c r="I20" s="37">
-        <v>79.611298994530301</v>
+        <v>79.674545626035396</v>
       </c>
       <c r="J20" s="37">
-        <v>79.280646522868494</v>
+        <v>79.347319403113005</v>
       </c>
       <c r="K20" s="37">
-        <v>79.132872100487702</v>
+        <v>79.661842722308606</v>
       </c>
       <c r="L20" s="37">
-        <v>79.258059642908094</v>
+        <v>79.257304968004405</v>
       </c>
       <c r="M20" s="37">
-        <v>79.419405694583403</v>
+        <v>79.256593961857106</v>
       </c>
       <c r="N20" s="37">
-        <v>84.077290106771898</v>
+        <v>83.949716449712398</v>
       </c>
       <c r="O20" s="37">
-        <v>81.433877974863293</v>
+        <v>81.424860965377405</v>
       </c>
       <c r="P20" s="37">
-        <v>79.886083901350602</v>
+        <v>79.996530113436094</v>
       </c>
       <c r="Q20" s="37">
         <v>84.817181708174402</v>
@@ -3799,99 +3798,86 @@
         <v>190</v>
       </c>
       <c r="D21" s="33">
-        <f t="shared" ref="D21:AA21" si="0">+D8+D14</f>
-        <v>2977.2552940261621</v>
+        <v>2977.2552940263499</v>
       </c>
       <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>2809.3722084926039</v>
+        <v>2809.3722084952601</v>
       </c>
       <c r="F21" s="33">
-        <f t="shared" si="0"/>
-        <v>2993.591587788987</v>
+        <v>2993.59158779058</v>
       </c>
       <c r="G21" s="33">
-        <f t="shared" si="0"/>
-        <v>3207.547616710262</v>
+        <v>2926.4289200408398</v>
       </c>
       <c r="H21" s="33">
-        <f t="shared" si="0"/>
-        <v>3102.1084291154752</v>
+        <v>2820.9342069167601</v>
       </c>
       <c r="I21" s="33">
-        <f t="shared" si="0"/>
-        <v>3234.8230619474448</v>
+        <v>2954.1210615617401</v>
       </c>
       <c r="J21" s="33">
-        <f t="shared" si="0"/>
-        <v>3572.7449187333132</v>
+        <v>2973.0950904013598</v>
       </c>
       <c r="K21" s="33">
-        <f t="shared" si="0"/>
-        <v>3511.2342951657852</v>
+        <v>2949.0571090869698</v>
       </c>
       <c r="L21" s="33">
-        <f t="shared" si="0"/>
-        <v>2477.7579197738132</v>
+        <v>3206.5746932407301</v>
       </c>
       <c r="M21" s="33">
-        <f t="shared" si="0"/>
-        <v>2590.8302816997079</v>
+        <v>3036.1023656857601</v>
       </c>
       <c r="N21" s="33">
-        <f t="shared" si="0"/>
-        <v>2742.9153358444601</v>
+        <v>3095.9821117093302</v>
       </c>
       <c r="O21" s="33">
-        <f t="shared" si="0"/>
-        <v>2574.6517189685201</v>
+        <v>3054.9150711227499</v>
       </c>
       <c r="P21" s="33">
-        <f t="shared" si="0"/>
-        <v>35794.832668323201</v>
+        <v>35797.429720095701</v>
       </c>
       <c r="Q21" s="33">
-        <f t="shared" si="0"/>
+        <f>+Q8+Q14</f>
         <v>2910.9584616377797</v>
       </c>
       <c r="R21" s="33">
-        <f t="shared" si="0"/>
+        <f>+R8+R14</f>
         <v>3148.183709023142</v>
       </c>
       <c r="S21" s="33">
-        <f t="shared" si="0"/>
+        <f>+S8+S14</f>
         <v>2890.32031073895</v>
       </c>
       <c r="T21" s="33">
-        <f t="shared" si="0"/>
+        <f>+T8+T14</f>
         <v>2624.4402637059102</v>
       </c>
       <c r="U21" s="33">
-        <f t="shared" si="0"/>
+        <f>+U8+U14</f>
         <v>2524.7078290308209</v>
       </c>
       <c r="V21" s="33">
-        <f t="shared" si="0"/>
+        <f>+V8+V14</f>
         <v>3112.2754774806499</v>
       </c>
       <c r="W21" s="33">
-        <f t="shared" si="0"/>
+        <f>+W8+W14</f>
         <v>2590.1444809710601</v>
       </c>
       <c r="X21" s="33">
-        <f t="shared" si="0"/>
+        <f>+X8+X14</f>
         <v>3211.5722368277866</v>
       </c>
       <c r="Y21" s="33">
-        <f t="shared" si="0"/>
+        <f>+Y8+Y14</f>
         <v>2306.9169999566011</v>
       </c>
       <c r="Z21" s="33">
-        <f t="shared" si="0"/>
+        <f>+Z8+Z14</f>
         <v>2539.3082815555999</v>
       </c>
       <c r="AA21" s="33">
-        <f t="shared" si="0"/>
+        <f>+AA8+AA14</f>
         <v>2106.860952130151</v>
       </c>
       <c r="AB21" s="33">
@@ -14725,7 +14711,7 @@
   </sheetPr>
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -36961,20 +36947,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36997,14 +36983,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402EAE19-2DEE-41D1-8903-534058CA7C5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE0308F5-DBE8-4D51-8E45-CE11E4AFFE5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
@@ -37019,4 +36997,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402EAE19-2DEE-41D1-8903-534058CA7C5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/plan_budget_real.xlsx
+++ b/plan_budget_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTOS\Proyecto_Plan_Minero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9105A46-7415-42D7-B4E2-D3C97575D43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D6214-9442-4009-820D-2877387422D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-765" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta" sheetId="1" r:id="rId1"/>
@@ -755,6 +755,7 @@
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -767,6 +768,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1635,7 +1637,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,43 +1980,43 @@
         <v>179</v>
       </c>
       <c r="D4" s="2">
-        <v>0.51050475273740148</v>
+        <v>0.49518961015527901</v>
       </c>
       <c r="E4" s="2">
-        <v>0.40373466443177936</v>
+        <v>0.39162262449882601</v>
       </c>
       <c r="F4" s="2">
-        <v>0.3937052672720211</v>
+        <v>0.38189410925386003</v>
       </c>
       <c r="G4" s="2">
-        <v>0.62859320407878316</v>
+        <v>0.60973540795642001</v>
       </c>
       <c r="H4" s="2">
-        <v>0.5877497775049122</v>
+        <v>0.57011728417976504</v>
       </c>
       <c r="I4" s="2">
-        <v>0.42614666742652274</v>
+        <v>0.413362267403727</v>
       </c>
       <c r="J4" s="2">
-        <v>0.48154750315044442</v>
+        <v>0.46710107805593098</v>
       </c>
       <c r="K4" s="2">
-        <v>0.8042709554553823</v>
+        <v>0.78014282679172098</v>
       </c>
       <c r="L4" s="2">
-        <v>0.76818055672738961</v>
+        <v>0.74513514002556802</v>
       </c>
       <c r="M4" s="2">
-        <v>0.92742713987976044</v>
+        <v>0.89960432568336801</v>
       </c>
       <c r="N4" s="2">
-        <v>0.77438661634944395</v>
+        <v>0.75115501785896099</v>
       </c>
       <c r="O4" s="2">
-        <v>1.5080662023797085</v>
+        <v>1.46282421630832</v>
       </c>
       <c r="P4" s="35">
-        <v>0.70248973712700502</v>
+        <v>0.68141504501319505</v>
       </c>
       <c r="Q4" s="2">
         <v>0.52148612022221597</v>
@@ -2620,43 +2622,43 @@
         <v>179</v>
       </c>
       <c r="D10" s="2">
-        <v>0.87696674459825907</v>
+        <v>0.85065774226031099</v>
       </c>
       <c r="E10" s="2">
-        <v>0.80645068545738674</v>
+        <v>0.78225716489366504</v>
       </c>
       <c r="F10" s="2">
-        <v>0.84014295323468235</v>
+        <v>0.81493866463764197</v>
       </c>
       <c r="G10" s="2">
-        <v>0.73709817596117355</v>
+        <v>0.71498523068233799</v>
       </c>
       <c r="H10" s="2">
-        <v>0.74162922381348895</v>
+        <v>0.71938034709908405</v>
       </c>
       <c r="I10" s="2">
-        <v>0.77658230916157744</v>
+        <v>0.75328483988673001</v>
       </c>
       <c r="J10" s="2">
-        <v>0.76367452425290661</v>
+        <v>0.74076428852531895</v>
       </c>
       <c r="K10" s="2">
-        <v>0.72082853401845581</v>
+        <v>0.69920367799790195</v>
       </c>
       <c r="L10" s="2">
-        <v>0.89484332021904289</v>
+        <v>0.867998020612472</v>
       </c>
       <c r="M10" s="2">
-        <v>0.66768585899005295</v>
+        <v>0.64765528322035104</v>
       </c>
       <c r="N10" s="2">
-        <v>0.78667821000904703</v>
+        <v>0.76307786370877595</v>
       </c>
       <c r="O10" s="2">
-        <v>0.64161962171303177</v>
+        <v>0.62237103306164099</v>
       </c>
       <c r="P10" s="35">
-        <v>0.76780773821210657</v>
+        <v>0.744773506065743</v>
       </c>
       <c r="Q10" s="2">
         <v>0.75941662238793906</v>
@@ -3263,43 +3265,43 @@
         <v>179</v>
       </c>
       <c r="D16" s="35">
-        <v>0.78000000000075154</v>
+        <v>0.75660000000072902</v>
       </c>
       <c r="E16" s="35">
-        <v>0.76</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="F16" s="35">
-        <v>0.81319999999999992</v>
+        <v>0.78880399999999995</v>
       </c>
       <c r="G16" s="35">
-        <v>0.72</v>
+        <v>0.69840000000000002</v>
       </c>
       <c r="H16" s="35">
-        <v>0.72999999999999987</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="I16" s="35">
-        <v>0.72999999999999987</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="J16" s="35">
-        <v>0.73999999999999988</v>
+        <v>0.71779999999999999</v>
       </c>
       <c r="K16" s="35">
-        <v>0.73000000000000009</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="L16" s="35">
-        <v>0.89</v>
+        <v>0.86329999999999996</v>
       </c>
       <c r="M16" s="35">
-        <v>0.72813885911358689</v>
+        <v>0.70629469334017903</v>
       </c>
       <c r="N16" s="35">
-        <v>0.77999999999999992</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="O16" s="35">
-        <v>0.71200000000000019</v>
+        <v>0.69064000000000003</v>
       </c>
       <c r="P16" s="35">
-        <v>0.75751154324667858</v>
+        <v>0.73478619694927805</v>
       </c>
       <c r="Q16" s="35">
         <v>0.67900000000000005</v>
@@ -3837,51 +3839,51 @@
         <v>35797.429720095701</v>
       </c>
       <c r="Q21" s="33">
-        <f>+Q8+Q14</f>
+        <f t="shared" ref="Q21:AB21" si="0">+Q8+Q14</f>
         <v>2910.9584616377797</v>
       </c>
       <c r="R21" s="33">
-        <f>+R8+R14</f>
+        <f t="shared" si="0"/>
         <v>3148.183709023142</v>
       </c>
       <c r="S21" s="33">
-        <f>+S8+S14</f>
+        <f t="shared" si="0"/>
         <v>2890.32031073895</v>
       </c>
       <c r="T21" s="33">
-        <f>+T8+T14</f>
+        <f t="shared" si="0"/>
         <v>2624.4402637059102</v>
       </c>
       <c r="U21" s="33">
-        <f>+U8+U14</f>
+        <f t="shared" si="0"/>
         <v>2524.7078290308209</v>
       </c>
       <c r="V21" s="33">
-        <f>+V8+V14</f>
+        <f t="shared" si="0"/>
         <v>3112.2754774806499</v>
       </c>
       <c r="W21" s="33">
-        <f>+W8+W14</f>
+        <f t="shared" si="0"/>
         <v>2590.1444809710601</v>
       </c>
       <c r="X21" s="33">
-        <f>+X8+X14</f>
+        <f t="shared" si="0"/>
         <v>3211.5722368277866</v>
       </c>
       <c r="Y21" s="33">
-        <f>+Y8+Y14</f>
+        <f t="shared" si="0"/>
         <v>2306.9169999566011</v>
       </c>
       <c r="Z21" s="33">
-        <f>+Z8+Z14</f>
+        <f t="shared" si="0"/>
         <v>2539.3082815555999</v>
       </c>
       <c r="AA21" s="33">
-        <f>+AA8+AA14</f>
+        <f t="shared" si="0"/>
         <v>2106.860952130151</v>
       </c>
       <c r="AB21" s="33">
-        <f>+AB8+AB14</f>
+        <f t="shared" si="0"/>
         <v>2298.398287963405</v>
       </c>
       <c r="AC21" s="33">
@@ -36708,6 +36710,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013F0450832216641AEDB94BB54CD9BDB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f9e1e0adf90d7a6b6cc412ae140523e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xmlns:ns4="409f85f6-ee02-44c1-8655-becc3c425463" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d8ee2c7aeaecb2db4535ec2c35f276e" ns3:_="" ns4:_="">
     <xsd:import namespace="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
@@ -36946,38 +36965,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BE59C3-2720-43D4-9ABC-E12E4F5BEE8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402EAE19-2DEE-41D1-8903-534058CA7C5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
-    <ds:schemaRef ds:uri="409f85f6-ee02-44c1-8655-becc3c425463"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37000,9 +36991,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402EAE19-2DEE-41D1-8903-534058CA7C5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BE59C3-2720-43D4-9ABC-E12E4F5BEE8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
+    <ds:schemaRef ds:uri="409f85f6-ee02-44c1-8655-becc3c425463"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/plan_budget_real.xlsx
+++ b/plan_budget_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTOS\Proyecto_Plan_Minero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D6214-9442-4009-820D-2877387422D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2CC62-BCB5-49DD-8CEC-B3C389180FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-765" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="KPI-Servicios" sheetId="22" r:id="rId8"/>
     <sheet name="Envios Desglosados por Fases" sheetId="27" r:id="rId9"/>
     <sheet name="Distancias Por Tramos" sheetId="29" r:id="rId10"/>
+    <sheet name="Costos" sheetId="32" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="214">
   <si>
     <t>2026</t>
   </si>
@@ -730,6 +731,12 @@
   <si>
     <t>Periodo</t>
   </si>
+  <si>
+    <t>Costo Mina</t>
+  </si>
+  <si>
+    <t>Costo Planta</t>
+  </si>
 </sst>
 </file>
 
@@ -1048,7 +1055,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1229,6 +1236,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1633,7 +1643,7 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8472,6 +8482,460 @@
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Arial"&amp;8&amp;K000000 [OFFICIAL]&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8B887-0740-4322-AF42-755F8D3A3B57}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A2:D32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="R37" sqref="R37"/>
+      <selection pane="topRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="16.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="64">
+        <v>3.844247406448972</v>
+      </c>
+      <c r="D4" s="64">
+        <v>13.756930934442607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="64">
+        <v>3.5039266579944712</v>
+      </c>
+      <c r="D5" s="64">
+        <v>13.515519444432183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="64">
+        <v>3.2092794195786158</v>
+      </c>
+      <c r="D6" s="64">
+        <v>17.916535743311961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="64">
+        <v>3.3506789740563865</v>
+      </c>
+      <c r="D7" s="64">
+        <v>12.829303094384908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="64">
+        <v>3.5377635721272025</v>
+      </c>
+      <c r="D8" s="64">
+        <v>12.642330469048082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="64">
+        <v>3.4257560089933188</v>
+      </c>
+      <c r="D9" s="64">
+        <v>12.795329353693885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="64">
+        <v>3.146670635975823</v>
+      </c>
+      <c r="D10" s="64">
+        <v>13.049631191954239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="64">
+        <v>2.9217565180575553</v>
+      </c>
+      <c r="D11" s="64">
+        <v>12.812733151964045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="64">
+        <v>2.9302374833927467</v>
+      </c>
+      <c r="D12" s="64">
+        <v>17.191520360848745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="64">
+        <v>2.9098956693198694</v>
+      </c>
+      <c r="D13" s="64">
+        <v>12.603316484137684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="64">
+        <v>3.0349591825977842</v>
+      </c>
+      <c r="D14" s="64">
+        <v>13.822399648673093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="64">
+        <v>2.4081040641698754</v>
+      </c>
+      <c r="D15" s="64">
+        <v>11.767156939682495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D16" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D17" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D18" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D19" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D20" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D21" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D22" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D23" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D24" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D25" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D26" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="64">
+        <v>2.8340521189855843</v>
+      </c>
+      <c r="D27" s="64">
+        <v>13.281539451010344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="64">
+        <v>2.9164408710391849</v>
+      </c>
+      <c r="D28" s="64">
+        <v>13.028832844381391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="64">
+        <v>2.9164408710391849</v>
+      </c>
+      <c r="D29" s="64">
+        <v>13.028832844381391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="64">
+        <v>2.9164408710391849</v>
+      </c>
+      <c r="D30" s="64">
+        <v>13.028832844381391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="64">
+        <v>2.9164408710391849</v>
+      </c>
+      <c r="D31" s="64">
+        <v>13.028832844381391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="64">
+        <v>2.3540489815809038</v>
+      </c>
+      <c r="D32" s="64">
+        <v>11.782641390462702</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -36710,23 +37174,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013F0450832216641AEDB94BB54CD9BDB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f9e1e0adf90d7a6b6cc412ae140523e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xmlns:ns4="409f85f6-ee02-44c1-8655-becc3c425463" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d8ee2c7aeaecb2db4535ec2c35f276e" ns3:_="" ns4:_="">
     <xsd:import namespace="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
@@ -36965,10 +37412,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402EAE19-2DEE-41D1-8903-534058CA7C5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BE59C3-2720-43D4-9ABC-E12E4F5BEE8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
+    <ds:schemaRef ds:uri="409f85f6-ee02-44c1-8655-becc3c425463"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36991,20 +37466,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BE59C3-2720-43D4-9ABC-E12E4F5BEE8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402EAE19-2DEE-41D1-8903-534058CA7C5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8ddbf5ca-fc79-48f1-b320-8cb35a436b7c"/>
-    <ds:schemaRef ds:uri="409f85f6-ee02-44c1-8655-becc3c425463"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>